--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT008-022 - Akuntansi - Transaksi - Upload Harga Pasar Fixed Income.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT008-022 - Akuntansi - Transaksi - Upload Harga Pasar Fixed Income.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017E4897-FCC2-46BD-81DA-738DF2C60115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4626E20E-3784-42CD-BC76-1A0D17EACCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,7 +502,7 @@
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +600,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="4">
-        <v>32382</v>
+        <v>32118</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>11</v>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT008-022 - Akuntansi - Transaksi - Upload Harga Pasar Fixed Income.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT008-022 - Akuntansi - Transaksi - Upload Harga Pasar Fixed Income.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4626E20E-3784-42CD-BC76-1A0D17EACCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E31B8A-8D97-432D-9BF2-92CFDDA1B972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,13 +97,13 @@
     <t>DPLKAKT008-022</t>
   </si>
   <si>
-    <t>Username : 32382;
+    <t>22012023HargaPasarFixedIncome.xlsx</t>
+  </si>
+  <si>
+    <t>Username : 31160;
 Password : bni1234;
 Tgl. Market : 22/01/2023;
 File Excel : 22012023HargaPasarFixedIncome.xlsx</t>
-  </si>
-  <si>
-    <t>22012023HargaPasarFixedIncome.xlsx</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="4">
-        <v>32118</v>
+        <v>31160</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>11</v>
@@ -624,7 +624,7 @@
         <v>44948</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="6"/>
